--- a/OpenMRS_DDT/TC_RegisterPatient/Main.rvl.xlsx
+++ b/OpenMRS_DDT/TC_RegisterPatient/Main.rvl.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="611" uniqueCount="132">
   <si>
     <t>Flow</t>
   </si>
@@ -401,6 +401,15 @@
   </si>
   <si>
     <t>%WORKDIR%\M_Logout\Main.rvl.xlsx</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Pharmacy</t>
+  </si>
+  <si>
+    <t>Registration Desk</t>
   </si>
 </sst>
 </file>
@@ -421,7 +430,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="690">
+  <borders count="693">
     <border>
       <left/>
       <right/>
@@ -1118,11 +1127,14 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="690">
+  <cellXfs count="693">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0"/>
@@ -1813,6 +1825,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="687" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="688" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="689" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="690" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="691" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="692" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2674,7 +2689,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H62"/>
+  <dimension ref="A1:H65"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="5.86328125" customWidth="true"/>
@@ -2790,625 +2805,646 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="674"/>
+      <c r="A7" s="690"/>
+      <c r="B7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>131</v>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" s="676" t="s">
+      <c r="A8" s="691"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="692"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="674"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="676" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B11" t="s">
         <v>90</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>7</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>7</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>112</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F11" t="s">
         <v>64</v>
       </c>
-      <c r="G8" t="s">
+      <c r="G11" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="678"/>
-      <c r="B9" t="s">
+    <row r="12">
+      <c r="A12" s="678"/>
+      <c r="B12" t="s">
         <v>39</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" t="s">
         <v>113</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" t="s">
         <v>64</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G12" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="677" t="s">
+    <row r="13">
+      <c r="A13" s="677" t="s">
         <v>45</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B13" t="s">
         <v>111</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C13" t="s">
         <v>7</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D13" t="s">
         <v>7</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" t="s">
         <v>7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" t="s">
         <v>7</v>
       </c>
-      <c r="G10" t="s">
+      <c r="G13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="265"/>
-      <c r="B11" s="266" t="s">
-        <v>3</v>
-      </c>
-      <c r="C11" s="267" t="s">
+    <row r="14">
+      <c r="A14" s="265"/>
+      <c r="B14" s="266" t="s">
+        <v>3</v>
+      </c>
+      <c r="C14" s="267" t="s">
         <v>103</v>
       </c>
-      <c r="D11" s="268" t="s">
+      <c r="D14" s="268" t="s">
         <v>104</v>
       </c>
-      <c r="E11" s="269" t="s">
+      <c r="E14" s="269" t="s">
         <v>105</v>
       </c>
-      <c r="F11" s="270" t="s">
+      <c r="F14" s="270" t="s">
         <v>13</v>
       </c>
-      <c r="G11" s="271" t="s">
+      <c r="G14" s="271" t="s">
         <v>106</v>
       </c>
-      <c r="H11" s="272"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="675" t="s">
+      <c r="H14" s="272"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="675" t="s">
         <v>47</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B15" t="s">
         <v>109</v>
       </c>
-      <c r="C12" t="s">
+      <c r="C15" t="s">
         <v>7</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D15" t="s">
         <v>7</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E15" t="s">
         <v>7</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F15" t="s">
         <v>7</v>
       </c>
-      <c r="G12" t="s">
+      <c r="G15" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="273"/>
-      <c r="B13" s="274"/>
-      <c r="C13" s="275"/>
-      <c r="D13" s="276"/>
-      <c r="E13" s="277"/>
-      <c r="F13" s="278"/>
-      <c r="G13" s="279"/>
-      <c r="H13" s="280"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="281"/>
-      <c r="B14" s="282" t="s">
-        <v>3</v>
-      </c>
-      <c r="C14" s="283" t="s">
+    <row r="16">
+      <c r="A16" s="273"/>
+      <c r="B16" s="274"/>
+      <c r="C16" s="275"/>
+      <c r="D16" s="276"/>
+      <c r="E16" s="277"/>
+      <c r="F16" s="278"/>
+      <c r="G16" s="279"/>
+      <c r="H16" s="280"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="281"/>
+      <c r="B17" s="282" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="283" t="s">
         <v>103</v>
       </c>
-      <c r="D14" s="284" t="s">
+      <c r="D17" s="284" t="s">
         <v>116</v>
       </c>
-      <c r="E14" s="285" t="s">
+      <c r="E17" s="285" t="s">
         <v>117</v>
       </c>
-      <c r="F14" s="286" t="s">
+      <c r="F17" s="286" t="s">
         <v>13</v>
       </c>
-      <c r="G14" s="287" t="s">
+      <c r="G17" s="287" t="s">
         <v>128</v>
       </c>
-      <c r="H14" s="288"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="289"/>
-      <c r="B15" s="290"/>
-      <c r="C15" s="291"/>
-      <c r="D15" s="292"/>
-      <c r="E15" s="293"/>
-      <c r="F15" s="294"/>
-      <c r="G15" s="295"/>
-      <c r="H15" s="296"/>
-    </row>
-    <row r="16">
-      <c r="A16" s="297"/>
-      <c r="B16" s="298"/>
-      <c r="C16" s="299"/>
-      <c r="D16" s="300"/>
-      <c r="E16" s="301"/>
-      <c r="F16" s="302"/>
-      <c r="G16" s="303"/>
-      <c r="H16" s="304"/>
-    </row>
-    <row r="17">
-      <c r="A17" s="305"/>
-      <c r="B17" s="306"/>
-      <c r="C17" s="307"/>
-      <c r="D17" s="308"/>
-      <c r="E17" s="309"/>
-      <c r="F17" s="310"/>
-      <c r="G17" s="311"/>
-      <c r="H17" s="312"/>
+      <c r="H17" s="288"/>
     </row>
     <row r="18">
-      <c r="A18" s="313"/>
-      <c r="B18" s="314"/>
-      <c r="C18" s="315"/>
-      <c r="D18" s="316"/>
-      <c r="E18" s="317"/>
-      <c r="F18" s="318"/>
-      <c r="G18" s="319"/>
-      <c r="H18" s="320"/>
+      <c r="A18" s="289"/>
+      <c r="B18" s="290"/>
+      <c r="C18" s="291"/>
+      <c r="D18" s="292"/>
+      <c r="E18" s="293"/>
+      <c r="F18" s="294"/>
+      <c r="G18" s="295"/>
+      <c r="H18" s="296"/>
     </row>
     <row r="19">
-      <c r="A19" s="321"/>
-      <c r="B19" s="322"/>
-      <c r="C19" s="323"/>
-      <c r="D19" s="324"/>
-      <c r="E19" s="325"/>
-      <c r="F19" s="326"/>
-      <c r="G19" s="327"/>
-      <c r="H19" s="328"/>
+      <c r="A19" s="297"/>
+      <c r="B19" s="298"/>
+      <c r="C19" s="299"/>
+      <c r="D19" s="300"/>
+      <c r="E19" s="301"/>
+      <c r="F19" s="302"/>
+      <c r="G19" s="303"/>
+      <c r="H19" s="304"/>
     </row>
     <row r="20">
-      <c r="A20" s="329"/>
-      <c r="B20" s="330"/>
-      <c r="C20" s="331"/>
-      <c r="D20" s="332"/>
-      <c r="E20" s="333"/>
-      <c r="F20" s="334"/>
-      <c r="G20" s="335"/>
-      <c r="H20" s="336"/>
+      <c r="A20" s="305"/>
+      <c r="B20" s="306"/>
+      <c r="C20" s="307"/>
+      <c r="D20" s="308"/>
+      <c r="E20" s="309"/>
+      <c r="F20" s="310"/>
+      <c r="G20" s="311"/>
+      <c r="H20" s="312"/>
     </row>
     <row r="21">
-      <c r="A21" s="337"/>
-      <c r="B21" s="338"/>
-      <c r="C21" s="339"/>
-      <c r="D21" s="340"/>
-      <c r="E21" s="341"/>
-      <c r="F21" s="342"/>
-      <c r="G21" s="343"/>
-      <c r="H21" s="344"/>
+      <c r="A21" s="313"/>
+      <c r="B21" s="314"/>
+      <c r="C21" s="315"/>
+      <c r="D21" s="316"/>
+      <c r="E21" s="317"/>
+      <c r="F21" s="318"/>
+      <c r="G21" s="319"/>
+      <c r="H21" s="320"/>
     </row>
     <row r="22">
-      <c r="A22" s="345"/>
-      <c r="B22" s="346"/>
-      <c r="C22" s="347"/>
-      <c r="D22" s="348"/>
-      <c r="E22" s="349"/>
-      <c r="F22" s="350"/>
-      <c r="G22" s="351"/>
-      <c r="H22" s="352"/>
+      <c r="A22" s="321"/>
+      <c r="B22" s="322"/>
+      <c r="C22" s="323"/>
+      <c r="D22" s="324"/>
+      <c r="E22" s="325"/>
+      <c r="F22" s="326"/>
+      <c r="G22" s="327"/>
+      <c r="H22" s="328"/>
     </row>
     <row r="23">
-      <c r="A23" s="353"/>
-      <c r="B23" s="354"/>
-      <c r="C23" s="355"/>
-      <c r="D23" s="356"/>
-      <c r="E23" s="357"/>
-      <c r="F23" s="358"/>
-      <c r="G23" s="359"/>
-      <c r="H23" s="360"/>
+      <c r="A23" s="329"/>
+      <c r="B23" s="330"/>
+      <c r="C23" s="331"/>
+      <c r="D23" s="332"/>
+      <c r="E23" s="333"/>
+      <c r="F23" s="334"/>
+      <c r="G23" s="335"/>
+      <c r="H23" s="336"/>
     </row>
     <row r="24">
-      <c r="A24" s="361"/>
-      <c r="B24" s="362"/>
-      <c r="C24" s="363"/>
-      <c r="D24" s="364"/>
-      <c r="E24" s="365"/>
-      <c r="F24" s="366"/>
-      <c r="G24" s="367"/>
-      <c r="H24" s="368"/>
+      <c r="A24" s="337"/>
+      <c r="B24" s="338"/>
+      <c r="C24" s="339"/>
+      <c r="D24" s="340"/>
+      <c r="E24" s="341"/>
+      <c r="F24" s="342"/>
+      <c r="G24" s="343"/>
+      <c r="H24" s="344"/>
     </row>
     <row r="25">
-      <c r="A25" s="369"/>
-      <c r="B25" s="370"/>
-      <c r="C25" s="371"/>
-      <c r="D25" s="372"/>
-      <c r="E25" s="373"/>
-      <c r="F25" s="374"/>
-      <c r="G25" s="375"/>
-      <c r="H25" s="376"/>
+      <c r="A25" s="345"/>
+      <c r="B25" s="346"/>
+      <c r="C25" s="347"/>
+      <c r="D25" s="348"/>
+      <c r="E25" s="349"/>
+      <c r="F25" s="350"/>
+      <c r="G25" s="351"/>
+      <c r="H25" s="352"/>
     </row>
     <row r="26">
-      <c r="A26" s="377"/>
-      <c r="B26" s="378"/>
-      <c r="C26" s="379"/>
-      <c r="D26" s="380"/>
-      <c r="E26" s="381"/>
-      <c r="F26" s="382"/>
-      <c r="G26" s="383"/>
-      <c r="H26" s="384"/>
+      <c r="A26" s="353"/>
+      <c r="B26" s="354"/>
+      <c r="C26" s="355"/>
+      <c r="D26" s="356"/>
+      <c r="E26" s="357"/>
+      <c r="F26" s="358"/>
+      <c r="G26" s="359"/>
+      <c r="H26" s="360"/>
     </row>
     <row r="27">
-      <c r="A27" s="385"/>
-      <c r="B27" s="386"/>
-      <c r="C27" s="387"/>
-      <c r="D27" s="388"/>
-      <c r="E27" s="389"/>
-      <c r="F27" s="390"/>
-      <c r="G27" s="391"/>
-      <c r="H27" s="392"/>
+      <c r="A27" s="361"/>
+      <c r="B27" s="362"/>
+      <c r="C27" s="363"/>
+      <c r="D27" s="364"/>
+      <c r="E27" s="365"/>
+      <c r="F27" s="366"/>
+      <c r="G27" s="367"/>
+      <c r="H27" s="368"/>
     </row>
     <row r="28">
-      <c r="A28" s="393"/>
-      <c r="B28" s="394"/>
-      <c r="C28" s="395"/>
-      <c r="D28" s="396"/>
-      <c r="E28" s="397"/>
-      <c r="F28" s="398"/>
-      <c r="G28" s="399"/>
-      <c r="H28" s="400"/>
+      <c r="A28" s="369"/>
+      <c r="B28" s="370"/>
+      <c r="C28" s="371"/>
+      <c r="D28" s="372"/>
+      <c r="E28" s="373"/>
+      <c r="F28" s="374"/>
+      <c r="G28" s="375"/>
+      <c r="H28" s="376"/>
     </row>
     <row r="29">
-      <c r="A29" s="401"/>
-      <c r="B29" s="402"/>
-      <c r="C29" s="403"/>
-      <c r="D29" s="404"/>
-      <c r="E29" s="405"/>
-      <c r="F29" s="406"/>
-      <c r="G29" s="407"/>
-      <c r="H29" s="408"/>
+      <c r="A29" s="377"/>
+      <c r="B29" s="378"/>
+      <c r="C29" s="379"/>
+      <c r="D29" s="380"/>
+      <c r="E29" s="381"/>
+      <c r="F29" s="382"/>
+      <c r="G29" s="383"/>
+      <c r="H29" s="384"/>
     </row>
     <row r="30">
-      <c r="A30" s="409"/>
-      <c r="B30" s="410"/>
-      <c r="C30" s="411"/>
-      <c r="D30" s="412"/>
-      <c r="E30" s="413"/>
-      <c r="F30" s="414"/>
-      <c r="G30" s="415"/>
-      <c r="H30" s="416"/>
+      <c r="A30" s="385"/>
+      <c r="B30" s="386"/>
+      <c r="C30" s="387"/>
+      <c r="D30" s="388"/>
+      <c r="E30" s="389"/>
+      <c r="F30" s="390"/>
+      <c r="G30" s="391"/>
+      <c r="H30" s="392"/>
     </row>
     <row r="31">
-      <c r="A31" s="417"/>
-      <c r="B31" s="418"/>
-      <c r="C31" s="419"/>
-      <c r="D31" s="420"/>
-      <c r="E31" s="421"/>
-      <c r="F31" s="422"/>
-      <c r="G31" s="423"/>
-      <c r="H31" s="424"/>
+      <c r="A31" s="393"/>
+      <c r="B31" s="394"/>
+      <c r="C31" s="395"/>
+      <c r="D31" s="396"/>
+      <c r="E31" s="397"/>
+      <c r="F31" s="398"/>
+      <c r="G31" s="399"/>
+      <c r="H31" s="400"/>
     </row>
     <row r="32">
-      <c r="A32" s="425"/>
-      <c r="B32" s="426"/>
-      <c r="C32" s="427"/>
-      <c r="D32" s="428"/>
-      <c r="E32" s="429"/>
-      <c r="F32" s="430"/>
-      <c r="G32" s="431"/>
-      <c r="H32" s="432"/>
+      <c r="A32" s="401"/>
+      <c r="B32" s="402"/>
+      <c r="C32" s="403"/>
+      <c r="D32" s="404"/>
+      <c r="E32" s="405"/>
+      <c r="F32" s="406"/>
+      <c r="G32" s="407"/>
+      <c r="H32" s="408"/>
     </row>
     <row r="33">
-      <c r="A33" s="433"/>
-      <c r="B33" s="434"/>
-      <c r="C33" s="435"/>
-      <c r="D33" s="436"/>
-      <c r="E33" s="437"/>
-      <c r="F33" s="438"/>
-      <c r="G33" s="439"/>
-      <c r="H33" s="440"/>
+      <c r="A33" s="409"/>
+      <c r="B33" s="410"/>
+      <c r="C33" s="411"/>
+      <c r="D33" s="412"/>
+      <c r="E33" s="413"/>
+      <c r="F33" s="414"/>
+      <c r="G33" s="415"/>
+      <c r="H33" s="416"/>
     </row>
     <row r="34">
-      <c r="A34" s="441"/>
-      <c r="B34" s="442"/>
-      <c r="C34" s="443"/>
-      <c r="D34" s="444"/>
-      <c r="E34" s="445"/>
-      <c r="F34" s="446"/>
-      <c r="G34" s="447"/>
-      <c r="H34" s="448"/>
+      <c r="A34" s="417"/>
+      <c r="B34" s="418"/>
+      <c r="C34" s="419"/>
+      <c r="D34" s="420"/>
+      <c r="E34" s="421"/>
+      <c r="F34" s="422"/>
+      <c r="G34" s="423"/>
+      <c r="H34" s="424"/>
     </row>
     <row r="35">
-      <c r="A35" s="449"/>
-      <c r="B35" s="450"/>
-      <c r="C35" s="451"/>
-      <c r="D35" s="452"/>
-      <c r="E35" s="453"/>
-      <c r="F35" s="454"/>
-      <c r="G35" s="455"/>
-      <c r="H35" s="456"/>
+      <c r="A35" s="425"/>
+      <c r="B35" s="426"/>
+      <c r="C35" s="427"/>
+      <c r="D35" s="428"/>
+      <c r="E35" s="429"/>
+      <c r="F35" s="430"/>
+      <c r="G35" s="431"/>
+      <c r="H35" s="432"/>
     </row>
     <row r="36">
-      <c r="A36" s="457"/>
-      <c r="B36" s="458"/>
-      <c r="C36" s="459"/>
-      <c r="D36" s="460"/>
-      <c r="E36" s="461"/>
-      <c r="F36" s="462"/>
-      <c r="G36" s="463"/>
-      <c r="H36" s="464"/>
+      <c r="A36" s="433"/>
+      <c r="B36" s="434"/>
+      <c r="C36" s="435"/>
+      <c r="D36" s="436"/>
+      <c r="E36" s="437"/>
+      <c r="F36" s="438"/>
+      <c r="G36" s="439"/>
+      <c r="H36" s="440"/>
     </row>
     <row r="37">
-      <c r="A37" s="465"/>
-      <c r="B37" s="466"/>
-      <c r="C37" s="467"/>
-      <c r="D37" s="468"/>
-      <c r="E37" s="469"/>
-      <c r="F37" s="470"/>
-      <c r="G37" s="471"/>
-      <c r="H37" s="472"/>
+      <c r="A37" s="441"/>
+      <c r="B37" s="442"/>
+      <c r="C37" s="443"/>
+      <c r="D37" s="444"/>
+      <c r="E37" s="445"/>
+      <c r="F37" s="446"/>
+      <c r="G37" s="447"/>
+      <c r="H37" s="448"/>
     </row>
     <row r="38">
-      <c r="A38" s="473"/>
-      <c r="B38" s="474"/>
-      <c r="C38" s="475"/>
-      <c r="D38" s="476"/>
-      <c r="E38" s="477"/>
-      <c r="F38" s="478"/>
-      <c r="G38" s="479"/>
-      <c r="H38" s="480"/>
+      <c r="A38" s="449"/>
+      <c r="B38" s="450"/>
+      <c r="C38" s="451"/>
+      <c r="D38" s="452"/>
+      <c r="E38" s="453"/>
+      <c r="F38" s="454"/>
+      <c r="G38" s="455"/>
+      <c r="H38" s="456"/>
     </row>
     <row r="39">
-      <c r="A39" s="481"/>
-      <c r="B39" s="482"/>
-      <c r="C39" s="483"/>
-      <c r="D39" s="484"/>
-      <c r="E39" s="485"/>
-      <c r="F39" s="486"/>
-      <c r="G39" s="487"/>
-      <c r="H39" s="488"/>
+      <c r="A39" s="457"/>
+      <c r="B39" s="458"/>
+      <c r="C39" s="459"/>
+      <c r="D39" s="460"/>
+      <c r="E39" s="461"/>
+      <c r="F39" s="462"/>
+      <c r="G39" s="463"/>
+      <c r="H39" s="464"/>
     </row>
     <row r="40">
-      <c r="A40" s="489"/>
-      <c r="B40" s="490"/>
-      <c r="C40" s="491"/>
-      <c r="D40" s="492"/>
-      <c r="E40" s="493"/>
-      <c r="F40" s="494"/>
-      <c r="G40" s="495"/>
-      <c r="H40" s="496"/>
+      <c r="A40" s="465"/>
+      <c r="B40" s="466"/>
+      <c r="C40" s="467"/>
+      <c r="D40" s="468"/>
+      <c r="E40" s="469"/>
+      <c r="F40" s="470"/>
+      <c r="G40" s="471"/>
+      <c r="H40" s="472"/>
     </row>
     <row r="41">
-      <c r="A41" s="497"/>
-      <c r="B41" s="498"/>
-      <c r="C41" s="499"/>
-      <c r="D41" s="500"/>
-      <c r="E41" s="501"/>
-      <c r="F41" s="502"/>
-      <c r="G41" s="503"/>
-      <c r="H41" s="504"/>
+      <c r="A41" s="473"/>
+      <c r="B41" s="474"/>
+      <c r="C41" s="475"/>
+      <c r="D41" s="476"/>
+      <c r="E41" s="477"/>
+      <c r="F41" s="478"/>
+      <c r="G41" s="479"/>
+      <c r="H41" s="480"/>
     </row>
     <row r="42">
-      <c r="A42" s="505"/>
-      <c r="B42" s="506"/>
-      <c r="C42" s="507"/>
-      <c r="D42" s="508"/>
-      <c r="E42" s="509"/>
-      <c r="F42" s="510"/>
-      <c r="G42" s="511"/>
-      <c r="H42" s="512"/>
+      <c r="A42" s="481"/>
+      <c r="B42" s="482"/>
+      <c r="C42" s="483"/>
+      <c r="D42" s="484"/>
+      <c r="E42" s="485"/>
+      <c r="F42" s="486"/>
+      <c r="G42" s="487"/>
+      <c r="H42" s="488"/>
     </row>
     <row r="43">
-      <c r="A43" s="513"/>
-      <c r="B43" s="514"/>
-      <c r="C43" s="515"/>
-      <c r="D43" s="516"/>
-      <c r="E43" s="517"/>
-      <c r="F43" s="518"/>
-      <c r="G43" s="519"/>
-      <c r="H43" s="520"/>
+      <c r="A43" s="489"/>
+      <c r="B43" s="490"/>
+      <c r="C43" s="491"/>
+      <c r="D43" s="492"/>
+      <c r="E43" s="493"/>
+      <c r="F43" s="494"/>
+      <c r="G43" s="495"/>
+      <c r="H43" s="496"/>
     </row>
     <row r="44">
-      <c r="A44" s="521"/>
-      <c r="B44" s="522"/>
-      <c r="C44" s="523"/>
-      <c r="D44" s="524"/>
-      <c r="E44" s="525"/>
-      <c r="F44" s="526"/>
-      <c r="G44" s="527"/>
-      <c r="H44" s="528"/>
+      <c r="A44" s="497"/>
+      <c r="B44" s="498"/>
+      <c r="C44" s="499"/>
+      <c r="D44" s="500"/>
+      <c r="E44" s="501"/>
+      <c r="F44" s="502"/>
+      <c r="G44" s="503"/>
+      <c r="H44" s="504"/>
     </row>
     <row r="45">
-      <c r="A45" s="529"/>
-      <c r="B45" s="530"/>
-      <c r="C45" s="531"/>
-      <c r="D45" s="532"/>
-      <c r="E45" s="533"/>
-      <c r="F45" s="534"/>
-      <c r="G45" s="535"/>
-      <c r="H45" s="536"/>
+      <c r="A45" s="505"/>
+      <c r="B45" s="506"/>
+      <c r="C45" s="507"/>
+      <c r="D45" s="508"/>
+      <c r="E45" s="509"/>
+      <c r="F45" s="510"/>
+      <c r="G45" s="511"/>
+      <c r="H45" s="512"/>
     </row>
     <row r="46">
-      <c r="A46" s="537"/>
-      <c r="B46" s="538"/>
-      <c r="C46" s="539"/>
-      <c r="D46" s="540"/>
-      <c r="E46" s="541"/>
-      <c r="F46" s="542"/>
-      <c r="G46" s="543"/>
-      <c r="H46" s="544"/>
+      <c r="A46" s="513"/>
+      <c r="B46" s="514"/>
+      <c r="C46" s="515"/>
+      <c r="D46" s="516"/>
+      <c r="E46" s="517"/>
+      <c r="F46" s="518"/>
+      <c r="G46" s="519"/>
+      <c r="H46" s="520"/>
     </row>
     <row r="47">
-      <c r="A47" s="545"/>
-      <c r="B47" s="546"/>
-      <c r="C47" s="547"/>
-      <c r="D47" s="548"/>
-      <c r="E47" s="549"/>
-      <c r="F47" s="550"/>
-      <c r="G47" s="551"/>
-      <c r="H47" s="552"/>
+      <c r="A47" s="521"/>
+      <c r="B47" s="522"/>
+      <c r="C47" s="523"/>
+      <c r="D47" s="524"/>
+      <c r="E47" s="525"/>
+      <c r="F47" s="526"/>
+      <c r="G47" s="527"/>
+      <c r="H47" s="528"/>
     </row>
     <row r="48">
-      <c r="A48" s="553"/>
-      <c r="B48" s="554"/>
-      <c r="C48" s="555"/>
-      <c r="D48" s="556"/>
-      <c r="E48" s="557"/>
-      <c r="F48" s="558"/>
-      <c r="G48" s="559"/>
-      <c r="H48" s="560"/>
+      <c r="A48" s="529"/>
+      <c r="B48" s="530"/>
+      <c r="C48" s="531"/>
+      <c r="D48" s="532"/>
+      <c r="E48" s="533"/>
+      <c r="F48" s="534"/>
+      <c r="G48" s="535"/>
+      <c r="H48" s="536"/>
     </row>
     <row r="49">
-      <c r="A49" s="561"/>
-      <c r="B49" s="562"/>
-      <c r="C49" s="563"/>
-      <c r="D49" s="564"/>
-      <c r="E49" s="565"/>
-      <c r="F49" s="566"/>
-      <c r="G49" s="567"/>
-      <c r="H49" s="568"/>
+      <c r="A49" s="537"/>
+      <c r="B49" s="538"/>
+      <c r="C49" s="539"/>
+      <c r="D49" s="540"/>
+      <c r="E49" s="541"/>
+      <c r="F49" s="542"/>
+      <c r="G49" s="543"/>
+      <c r="H49" s="544"/>
     </row>
     <row r="50">
-      <c r="A50" s="569"/>
-      <c r="B50" s="570"/>
-      <c r="C50" s="571"/>
-      <c r="D50" s="572"/>
-      <c r="E50" s="573"/>
-      <c r="F50" s="574"/>
-      <c r="G50" s="575"/>
-      <c r="H50" s="576"/>
+      <c r="A50" s="545"/>
+      <c r="B50" s="546"/>
+      <c r="C50" s="547"/>
+      <c r="D50" s="548"/>
+      <c r="E50" s="549"/>
+      <c r="F50" s="550"/>
+      <c r="G50" s="551"/>
+      <c r="H50" s="552"/>
     </row>
     <row r="51">
-      <c r="A51" s="577"/>
-      <c r="B51" s="578"/>
-      <c r="C51" s="579"/>
-      <c r="D51" s="580"/>
-      <c r="E51" s="581"/>
-      <c r="F51" s="582"/>
-      <c r="G51" s="583"/>
-      <c r="H51" s="584"/>
+      <c r="A51" s="553"/>
+      <c r="B51" s="554"/>
+      <c r="C51" s="555"/>
+      <c r="D51" s="556"/>
+      <c r="E51" s="557"/>
+      <c r="F51" s="558"/>
+      <c r="G51" s="559"/>
+      <c r="H51" s="560"/>
     </row>
     <row r="52">
-      <c r="A52" s="585"/>
-      <c r="B52" s="586"/>
-      <c r="C52" s="587"/>
-      <c r="D52" s="588"/>
-      <c r="E52" s="589"/>
-      <c r="F52" s="590"/>
-      <c r="G52" s="591"/>
-      <c r="H52" s="592"/>
+      <c r="A52" s="561"/>
+      <c r="B52" s="562"/>
+      <c r="C52" s="563"/>
+      <c r="D52" s="564"/>
+      <c r="E52" s="565"/>
+      <c r="F52" s="566"/>
+      <c r="G52" s="567"/>
+      <c r="H52" s="568"/>
     </row>
     <row r="53">
-      <c r="A53" s="593"/>
-      <c r="B53" s="594"/>
-      <c r="C53" s="595"/>
-      <c r="D53" s="596"/>
-      <c r="E53" s="597"/>
-      <c r="F53" s="598"/>
-      <c r="G53" s="599"/>
-      <c r="H53" s="600"/>
+      <c r="A53" s="569"/>
+      <c r="B53" s="570"/>
+      <c r="C53" s="571"/>
+      <c r="D53" s="572"/>
+      <c r="E53" s="573"/>
+      <c r="F53" s="574"/>
+      <c r="G53" s="575"/>
+      <c r="H53" s="576"/>
     </row>
     <row r="54">
-      <c r="A54" s="601"/>
-      <c r="B54" s="602"/>
-      <c r="C54" s="603"/>
-      <c r="D54" s="604"/>
-      <c r="E54" s="605"/>
-      <c r="F54" s="606"/>
-      <c r="G54" s="607"/>
-      <c r="H54" s="608"/>
+      <c r="A54" s="577"/>
+      <c r="B54" s="578"/>
+      <c r="C54" s="579"/>
+      <c r="D54" s="580"/>
+      <c r="E54" s="581"/>
+      <c r="F54" s="582"/>
+      <c r="G54" s="583"/>
+      <c r="H54" s="584"/>
     </row>
     <row r="55">
-      <c r="A55" s="609"/>
-      <c r="B55" s="610"/>
-      <c r="C55" s="611"/>
-      <c r="D55" s="612"/>
-      <c r="E55" s="613"/>
-      <c r="F55" s="614"/>
-      <c r="G55" s="615"/>
-      <c r="H55" s="616"/>
+      <c r="A55" s="585"/>
+      <c r="B55" s="586"/>
+      <c r="C55" s="587"/>
+      <c r="D55" s="588"/>
+      <c r="E55" s="589"/>
+      <c r="F55" s="590"/>
+      <c r="G55" s="591"/>
+      <c r="H55" s="592"/>
     </row>
     <row r="56">
-      <c r="A56" s="617"/>
-      <c r="B56" s="618"/>
-      <c r="C56" s="619"/>
-      <c r="D56" s="620"/>
-      <c r="E56" s="621"/>
-      <c r="F56" s="622"/>
-      <c r="G56" s="623"/>
-      <c r="H56" s="624"/>
+      <c r="A56" s="593"/>
+      <c r="B56" s="594"/>
+      <c r="C56" s="595"/>
+      <c r="D56" s="596"/>
+      <c r="E56" s="597"/>
+      <c r="F56" s="598"/>
+      <c r="G56" s="599"/>
+      <c r="H56" s="600"/>
     </row>
     <row r="57">
-      <c r="A57" s="625"/>
-      <c r="B57" s="626"/>
-      <c r="C57" s="627"/>
-      <c r="D57" s="628"/>
-      <c r="E57" s="629"/>
-      <c r="F57" s="630"/>
-      <c r="G57" s="631"/>
-      <c r="H57" s="632"/>
+      <c r="A57" s="601"/>
+      <c r="B57" s="602"/>
+      <c r="C57" s="603"/>
+      <c r="D57" s="604"/>
+      <c r="E57" s="605"/>
+      <c r="F57" s="606"/>
+      <c r="G57" s="607"/>
+      <c r="H57" s="608"/>
     </row>
     <row r="58">
-      <c r="A58" s="633"/>
-      <c r="B58" s="634"/>
-      <c r="C58" s="635"/>
-      <c r="D58" s="636"/>
-      <c r="E58" s="637"/>
-      <c r="F58" s="638"/>
-      <c r="G58" s="639"/>
-      <c r="H58" s="640"/>
+      <c r="A58" s="609"/>
+      <c r="B58" s="610"/>
+      <c r="C58" s="611"/>
+      <c r="D58" s="612"/>
+      <c r="E58" s="613"/>
+      <c r="F58" s="614"/>
+      <c r="G58" s="615"/>
+      <c r="H58" s="616"/>
     </row>
     <row r="59">
-      <c r="A59" s="641"/>
-      <c r="B59" s="642"/>
-      <c r="C59" s="643"/>
-      <c r="D59" s="644"/>
-      <c r="E59" s="645"/>
-      <c r="F59" s="646"/>
-      <c r="G59" s="647"/>
-      <c r="H59" s="648"/>
+      <c r="A59" s="617"/>
+      <c r="B59" s="618"/>
+      <c r="C59" s="619"/>
+      <c r="D59" s="620"/>
+      <c r="E59" s="621"/>
+      <c r="F59" s="622"/>
+      <c r="G59" s="623"/>
+      <c r="H59" s="624"/>
     </row>
     <row r="60">
-      <c r="A60" s="649"/>
-      <c r="B60" s="650"/>
-      <c r="C60" s="651"/>
-      <c r="D60" s="652"/>
-      <c r="E60" s="653"/>
-      <c r="F60" s="654"/>
-      <c r="G60" s="655"/>
-      <c r="H60" s="656"/>
+      <c r="A60" s="625"/>
+      <c r="B60" s="626"/>
+      <c r="C60" s="627"/>
+      <c r="D60" s="628"/>
+      <c r="E60" s="629"/>
+      <c r="F60" s="630"/>
+      <c r="G60" s="631"/>
+      <c r="H60" s="632"/>
     </row>
     <row r="61">
-      <c r="A61" s="657"/>
-      <c r="B61" s="658"/>
-      <c r="C61" s="659"/>
-      <c r="D61" s="660"/>
-      <c r="E61" s="661"/>
-      <c r="F61" s="662"/>
-      <c r="G61" s="663"/>
-      <c r="H61" s="664"/>
+      <c r="A61" s="633"/>
+      <c r="B61" s="634"/>
+      <c r="C61" s="635"/>
+      <c r="D61" s="636"/>
+      <c r="E61" s="637"/>
+      <c r="F61" s="638"/>
+      <c r="G61" s="639"/>
+      <c r="H61" s="640"/>
     </row>
     <row r="62">
-      <c r="A62" s="665"/>
-      <c r="B62" s="666"/>
-      <c r="C62" s="667"/>
-      <c r="D62" s="668"/>
-      <c r="E62" s="669"/>
-      <c r="F62" s="670"/>
-      <c r="G62" s="671"/>
-      <c r="H62" s="672"/>
+      <c r="A62" s="641"/>
+      <c r="B62" s="642"/>
+      <c r="C62" s="643"/>
+      <c r="D62" s="644"/>
+      <c r="E62" s="645"/>
+      <c r="F62" s="646"/>
+      <c r="G62" s="647"/>
+      <c r="H62" s="648"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="649"/>
+      <c r="B63" s="650"/>
+      <c r="C63" s="651"/>
+      <c r="D63" s="652"/>
+      <c r="E63" s="653"/>
+      <c r="F63" s="654"/>
+      <c r="G63" s="655"/>
+      <c r="H63" s="656"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="657"/>
+      <c r="B64" s="658"/>
+      <c r="C64" s="659"/>
+      <c r="D64" s="660"/>
+      <c r="E64" s="661"/>
+      <c r="F64" s="662"/>
+      <c r="G64" s="663"/>
+      <c r="H64" s="664"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="665"/>
+      <c r="B65" s="666"/>
+      <c r="C65" s="667"/>
+      <c r="D65" s="668"/>
+      <c r="E65" s="669"/>
+      <c r="F65" s="670"/>
+      <c r="G65" s="671"/>
+      <c r="H65" s="672"/>
     </row>
   </sheetData>
 </worksheet>
